--- a/output/2015.xlsx
+++ b/output/2015.xlsx
@@ -531,14 +531,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I3" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="4">
@@ -564,14 +564,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I4" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="5">
@@ -597,14 +597,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>72963.64</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I5" t="n">
-        <v>73.59104156494141</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="6">
@@ -781,14 +781,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>72963.64</v>
+        <v>5828.072</v>
       </c>
       <c r="I11" t="n">
-        <v>73.59104156494141</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="12">
@@ -847,14 +847,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2226.38595</v>
+        <v>1920.6161746646</v>
       </c>
       <c r="I13" t="n">
-        <v>68.14316558837891</v>
+        <v>69.49598693847656</v>
       </c>
     </row>
     <row r="14">
@@ -880,14 +880,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2226.38595</v>
+        <v>1920.6161746646</v>
       </c>
       <c r="I14" t="n">
-        <v>68.14316558837891</v>
+        <v>69.49598693847656</v>
       </c>
     </row>
     <row r="15">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>25071.49</v>
+        <v>7164.64653</v>
       </c>
       <c r="I20" t="n">
-        <v>78.35689544677734</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="21">
@@ -1229,14 +1229,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I25" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="26">
@@ -1262,14 +1262,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>50443.52</v>
+        <v>2853.66179</v>
       </c>
       <c r="I26" t="n">
-        <v>78.47769165039062</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="27">
@@ -1328,14 +1328,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I28" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="29">
@@ -1394,14 +1394,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I30" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="31">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>72963.64</v>
+        <v>5828.072</v>
       </c>
       <c r="I44" t="n">
-        <v>73.59104156494141</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="45">
@@ -2163,14 +2163,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I55" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="56">
@@ -2361,14 +2361,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I61" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="62">
@@ -2545,14 +2545,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I67" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="68">
@@ -2611,14 +2611,14 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I69" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="70">
@@ -2677,14 +2677,14 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I71" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="72">
@@ -2710,14 +2710,14 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I72" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="73">
@@ -2743,14 +2743,14 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I73" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="74">
@@ -2842,14 +2842,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I76" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="77">
@@ -2974,14 +2974,14 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I80" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="81">
@@ -3007,14 +3007,14 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I81" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="82">
@@ -3106,14 +3106,14 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I84" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="85">
@@ -3172,14 +3172,14 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I86" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="87">
@@ -3205,14 +3205,14 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I87" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="88">
@@ -3304,14 +3304,14 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I90" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="91">
@@ -3337,14 +3337,14 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>广东顺德农村商业银行</t>
+          <t>重庆农村商业银行</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2260.3613848268</v>
+        <v>7163.65086</v>
       </c>
       <c r="I91" t="n">
-        <v>69.92628479003906</v>
+        <v>68.03396606445312</v>
       </c>
     </row>
     <row r="92">
@@ -3370,14 +3370,14 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I92" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="93">
@@ -3403,14 +3403,14 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I93" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="94">
@@ -3469,14 +3469,14 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I95" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="96">
@@ -3502,14 +3502,14 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>莱商银行</t>
+          <t>宁夏银行</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>641.9566765918</v>
+        <v>1189.97816</v>
       </c>
       <c r="I96" t="n">
-        <v>62.65092849731445</v>
+        <v>60.16187286376953</v>
       </c>
     </row>
     <row r="97">
@@ -3535,14 +3535,14 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I97" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="98">
@@ -3634,14 +3634,14 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I100" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="101">
@@ -3667,14 +3667,14 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I101" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="102">
@@ -3898,14 +3898,14 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I108" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="109">
@@ -3997,14 +3997,14 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I111" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="112">
@@ -4030,14 +4030,14 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I112" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="113">
@@ -4063,14 +4063,14 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I113" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="114">
@@ -4129,14 +4129,14 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I115" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="116">
@@ -4195,14 +4195,14 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I117" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="118">
@@ -4563,14 +4563,14 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I129" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="130">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>汉口银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>1831.42076</v>
+        <v>6361.30621</v>
       </c>
       <c r="I131" t="n">
-        <v>69.44748687744141</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="132">
@@ -4662,14 +4662,14 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>贵州银行</t>
+          <t>广东南海农村商业银行</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>1654.5384</v>
+        <v>1324.6350864295</v>
       </c>
       <c r="I132" t="n">
-        <v>63.56055068969727</v>
+        <v>65.52194976806641</v>
       </c>
     </row>
     <row r="133">
@@ -4823,14 +4823,14 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>50443.52</v>
+        <v>7164.64653</v>
       </c>
       <c r="I139" t="n">
-        <v>78.47769165039062</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="140">
@@ -4955,14 +4955,14 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>浦发银行</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>6282.82677</v>
+        <v>50443.52</v>
       </c>
       <c r="I143" t="n">
-        <v>72.18724060058594</v>
+        <v>78.47769165039062</v>
       </c>
     </row>
     <row r="144">
@@ -4988,14 +4988,14 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>10316.50386</v>
+        <v>3198.07987</v>
       </c>
       <c r="I144" t="n">
-        <v>73.2352294921875</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="145">
@@ -5087,14 +5087,14 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>佛山农村商业银行</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>5828.072</v>
+        <v>647.7011385982</v>
       </c>
       <c r="I147" t="n">
-        <v>73.22734069824219</v>
+        <v>67.84019470214844</v>
       </c>
     </row>
     <row r="148">
@@ -5153,14 +5153,14 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>1547.0414485544</v>
+        <v>926.7252035897</v>
       </c>
       <c r="I149" t="n">
-        <v>64.49616241455078</v>
+        <v>66.35646057128906</v>
       </c>
     </row>
     <row r="150">
@@ -5186,14 +5186,14 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>邢台银行</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>4448.51268</v>
+        <v>437.6242814508</v>
       </c>
       <c r="I150" t="n">
-        <v>72.61605072021484</v>
+        <v>65.95743560791016</v>
       </c>
     </row>
     <row r="151">
@@ -5219,14 +5219,14 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>佛山农村商业银行</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>10316.50386</v>
+        <v>647.7011385982</v>
       </c>
       <c r="I151" t="n">
-        <v>73.2352294921875</v>
+        <v>67.84019470214844</v>
       </c>
     </row>
     <row r="152">
@@ -5252,14 +5252,14 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>50443.52</v>
+        <v>2853.66179</v>
       </c>
       <c r="I152" t="n">
-        <v>78.47769165039062</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="153">
@@ -5304,14 +5304,14 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I154" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="155">
@@ -5436,14 +5436,14 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I158" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="159">
@@ -5601,14 +5601,14 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>50443.52</v>
+        <v>7164.64653</v>
       </c>
       <c r="I163" t="n">
-        <v>78.47769165039062</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="164">
@@ -5634,14 +5634,14 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>佛山农村商业银行</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>10316.50386</v>
+        <v>647.7011385982</v>
       </c>
       <c r="I164" t="n">
-        <v>73.2352294921875</v>
+        <v>67.84019470214844</v>
       </c>
     </row>
     <row r="165">
@@ -5752,14 +5752,14 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>50443.52</v>
+        <v>7164.64653</v>
       </c>
       <c r="I168" t="n">
-        <v>78.47769165039062</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="169">
@@ -5785,14 +5785,14 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>佛山农村商业银行</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>10316.50386</v>
+        <v>647.7011385982</v>
       </c>
       <c r="I169" t="n">
-        <v>73.2352294921875</v>
+        <v>67.84019470214844</v>
       </c>
     </row>
     <row r="170">
@@ -5818,14 +5818,14 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>50443.52</v>
+        <v>7164.64653</v>
       </c>
       <c r="I170" t="n">
-        <v>78.47769165039062</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="171">
@@ -5969,14 +5969,14 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I175" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="176">
@@ -6186,14 +6186,14 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>民生银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>45206.88</v>
+        <v>2853.66179</v>
       </c>
       <c r="I182" t="n">
-        <v>80.07228851318359</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="183">
@@ -6219,14 +6219,14 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>72963.64</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I183" t="n">
-        <v>73.59104156494141</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="184">
@@ -6318,14 +6318,14 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>72963.64</v>
+        <v>5656.67731</v>
       </c>
       <c r="I186" t="n">
-        <v>73.59104156494141</v>
+        <v>67.84734344482422</v>
       </c>
     </row>
     <row r="187">
@@ -6351,14 +6351,14 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>72963.64</v>
+        <v>5828.072</v>
       </c>
       <c r="I187" t="n">
-        <v>73.59104156494141</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="188">
@@ -6521,14 +6521,14 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>汉口银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>1831.42076</v>
+        <v>6361.30621</v>
       </c>
       <c r="I193" t="n">
-        <v>69.44748687744141</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="194">
@@ -6620,14 +6620,14 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>汉口银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>1831.42076</v>
+        <v>6361.30621</v>
       </c>
       <c r="I196" t="n">
-        <v>69.44748687744141</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="197">
@@ -6686,14 +6686,14 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I198" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="199">
@@ -6719,14 +6719,14 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>10316.50386</v>
+        <v>5656.67731</v>
       </c>
       <c r="I199" t="n">
-        <v>73.2352294921875</v>
+        <v>67.84734344482422</v>
       </c>
     </row>
     <row r="200">
@@ -6974,14 +6974,14 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>富滇银行</t>
+          <t>四川天府银行</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>1540.35433</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>68.71986389160156</v>
+        <v>64.42512098978095</v>
       </c>
     </row>
     <row r="209">
@@ -7007,14 +7007,14 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>潍坊银行</t>
+          <t>齐鲁银行</t>
         </is>
       </c>
       <c r="H209" t="n">
-        <v>917.8570200397</v>
+        <v>1528.81492371</v>
       </c>
       <c r="I209" t="n">
-        <v>66.44532775878906</v>
+        <v>63.24068450927734</v>
       </c>
     </row>
     <row r="210">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H211" t="n">
-        <v>10316.50386</v>
+        <v>5656.67731</v>
       </c>
       <c r="I211" t="n">
-        <v>73.2352294921875</v>
+        <v>67.84734344482422</v>
       </c>
     </row>
     <row r="212">
@@ -7465,14 +7465,14 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H225" t="n">
-        <v>71553.62</v>
+        <v>6361.30621</v>
       </c>
       <c r="I225" t="n">
-        <v>79.34027862548828</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="226">
@@ -7663,14 +7663,14 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I231" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="232">
@@ -7696,14 +7696,14 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I232" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="233">
@@ -7729,14 +7729,14 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>乌鲁木齐银行</t>
+          <t>兰州银行</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>1034.3936042701</v>
+        <v>2055.7392727677</v>
       </c>
       <c r="I233" t="n">
-        <v>63.93939971923828</v>
+        <v>73.99965667724609</v>
       </c>
     </row>
     <row r="234">
@@ -7814,14 +7814,14 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I236" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="237">
@@ -7979,14 +7979,14 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I241" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="242">
@@ -8012,14 +8012,14 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I242" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="243">
@@ -8045,14 +8045,14 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H243" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I243" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="244">
@@ -8144,14 +8144,14 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H246" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I246" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="247">
@@ -8177,14 +8177,14 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H247" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I247" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="248">
@@ -8342,14 +8342,14 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I252" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="253">
@@ -8375,14 +8375,14 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>71553.62</v>
+        <v>6361.30621</v>
       </c>
       <c r="I253" t="n">
-        <v>79.34027862548828</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="254">
@@ -8408,14 +8408,14 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>71553.62</v>
+        <v>6361.30621</v>
       </c>
       <c r="I254" t="n">
-        <v>79.34027862548828</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="255">
@@ -8441,14 +8441,14 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>71553.62</v>
+        <v>6361.30621</v>
       </c>
       <c r="I255" t="n">
-        <v>79.34027862548828</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="256">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H257" t="n">
-        <v>71553.62</v>
+        <v>6361.30621</v>
       </c>
       <c r="I257" t="n">
-        <v>79.34027862548828</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="258">
@@ -8526,14 +8526,14 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H258" t="n">
-        <v>71553.62</v>
+        <v>6361.30621</v>
       </c>
       <c r="I258" t="n">
-        <v>79.34027862548828</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="259">
@@ -8559,14 +8559,14 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>71553.62</v>
+        <v>6361.30621</v>
       </c>
       <c r="I259" t="n">
-        <v>79.34027862548828</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="260">
@@ -8611,14 +8611,14 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H261" t="n">
-        <v>10316.50386</v>
+        <v>3198.07987</v>
       </c>
       <c r="I261" t="n">
-        <v>73.2352294921875</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="262">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H263" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I263" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="264">
@@ -8743,14 +8743,14 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H265" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I265" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="266">
@@ -8776,14 +8776,14 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H266" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I266" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="267">
@@ -8809,14 +8809,14 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I267" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="268">
@@ -8842,14 +8842,14 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>10316.50386</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I268" t="n">
-        <v>73.2352294921875</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="269">
@@ -8875,14 +8875,14 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H269" t="n">
-        <v>10316.50386</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I269" t="n">
-        <v>73.2352294921875</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="270">
@@ -8908,14 +8908,14 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>10316.50386</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I270" t="n">
-        <v>73.2352294921875</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="271">
@@ -8941,14 +8941,14 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H271" t="n">
-        <v>10316.50386</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I271" t="n">
-        <v>73.2352294921875</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="272">
@@ -8974,14 +8974,14 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H272" t="n">
-        <v>10316.50386</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I272" t="n">
-        <v>73.2352294921875</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="273">
@@ -9092,14 +9092,14 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I276" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="277">
@@ -9224,14 +9224,14 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H280" t="n">
-        <v>7163.65086</v>
+        <v>2996.25509</v>
       </c>
       <c r="I280" t="n">
-        <v>68.03396606445312</v>
+        <v>68.39328002929688</v>
       </c>
     </row>
     <row r="281">
@@ -9257,14 +9257,14 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H281" t="n">
-        <v>7163.65086</v>
+        <v>2996.25509</v>
       </c>
       <c r="I281" t="n">
-        <v>68.03396606445312</v>
+        <v>68.39328002929688</v>
       </c>
     </row>
     <row r="282">
@@ -9290,14 +9290,14 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H282" t="n">
-        <v>7163.65086</v>
+        <v>2996.25509</v>
       </c>
       <c r="I282" t="n">
-        <v>68.03396606445312</v>
+        <v>68.39328002929688</v>
       </c>
     </row>
     <row r="283">
@@ -9578,14 +9578,14 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>中信银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>51222.92</v>
+        <v>5656.67731</v>
       </c>
       <c r="I292" t="n">
-        <v>70.77945709228516</v>
+        <v>67.84734344482422</v>
       </c>
     </row>
     <row r="293">
@@ -9743,14 +9743,14 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>乌鲁木齐银行</t>
+          <t>兰州银行</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>1034.3936042701</v>
+        <v>2055.7392727677</v>
       </c>
       <c r="I297" t="n">
-        <v>63.93939971923828</v>
+        <v>73.99965667724609</v>
       </c>
     </row>
     <row r="298">
@@ -9809,14 +9809,14 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I299" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="300">
@@ -9842,14 +9842,14 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H300" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I300" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="301">
@@ -9974,14 +9974,14 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H304" t="n">
-        <v>72963.64</v>
+        <v>5828.072</v>
       </c>
       <c r="I304" t="n">
-        <v>73.59104156494141</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="305">
@@ -10475,14 +10475,14 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H323" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I323" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="324">
@@ -10579,14 +10579,14 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H327" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I327" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="328">
@@ -10631,14 +10631,14 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H329" t="n">
-        <v>10316.50386</v>
+        <v>5656.67731</v>
       </c>
       <c r="I329" t="n">
-        <v>73.2352294921875</v>
+        <v>67.84734344482422</v>
       </c>
     </row>
     <row r="330">
@@ -10716,14 +10716,14 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H332" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I332" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="333">
@@ -10815,14 +10815,14 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H335" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I335" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="336">
@@ -10848,14 +10848,14 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H336" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I336" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="337">
@@ -10914,14 +10914,14 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H338" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I338" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="339">
@@ -11013,14 +11013,14 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H341" t="n">
-        <v>71553.62</v>
+        <v>6361.30621</v>
       </c>
       <c r="I341" t="n">
-        <v>79.34027862548828</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="342">
@@ -11112,14 +11112,14 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H344" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I344" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="345">
@@ -11145,14 +11145,14 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H345" t="n">
-        <v>71553.62</v>
+        <v>2853.66179</v>
       </c>
       <c r="I345" t="n">
-        <v>79.34027862548828</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="346">
@@ -11178,14 +11178,14 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H346" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I346" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="347">
@@ -11277,14 +11277,14 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H349" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I349" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="350">
@@ -11541,14 +11541,14 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H357" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I357" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="358">
@@ -11744,14 +11744,14 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H364" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I364" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="365">
@@ -11895,14 +11895,14 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H369" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I369" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="370">
@@ -12126,14 +12126,14 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H376" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I376" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="377">
@@ -12178,14 +12178,14 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>兴业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H378" t="n">
-        <v>52988.8</v>
+        <v>2853.66179</v>
       </c>
       <c r="I378" t="n">
-        <v>79.502685546875</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="379">
@@ -12211,14 +12211,14 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H379" t="n">
-        <v>6282.82677</v>
+        <v>2853.66179</v>
       </c>
       <c r="I379" t="n">
-        <v>72.18724060058594</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="380">
@@ -12244,14 +12244,14 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H380" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I380" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="381">
@@ -12310,14 +12310,14 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>北京农村商业银行</t>
         </is>
       </c>
       <c r="H382" t="n">
-        <v>7642.3544</v>
+        <v>6282.82677</v>
       </c>
       <c r="I382" t="n">
-        <v>65.89273071289062</v>
+        <v>72.18724060058594</v>
       </c>
     </row>
     <row r="383">
@@ -12343,14 +12343,14 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H383" t="n">
-        <v>6282.82677</v>
+        <v>2853.66179</v>
       </c>
       <c r="I383" t="n">
-        <v>72.18724060058594</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="384">
@@ -12442,14 +12442,14 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H386" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I386" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="387">
@@ -12508,14 +12508,14 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H388" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I388" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="389">
@@ -12541,14 +12541,14 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H389" t="n">
-        <v>72963.64</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I389" t="n">
-        <v>73.59104156494141</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="390">
@@ -12640,14 +12640,14 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H392" t="n">
-        <v>72963.64</v>
+        <v>5828.072</v>
       </c>
       <c r="I392" t="n">
-        <v>73.59104156494141</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="393">
@@ -12673,14 +12673,14 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>兴业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H393" t="n">
-        <v>52988.8</v>
+        <v>2853.66179</v>
       </c>
       <c r="I393" t="n">
-        <v>79.502685546875</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="394">
@@ -12706,14 +12706,14 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H394" t="n">
-        <v>72963.64</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I394" t="n">
-        <v>73.59104156494141</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="395">
@@ -12739,14 +12739,14 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H395" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I395" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="396">
@@ -12805,14 +12805,14 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H397" t="n">
-        <v>72963.64</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I397" t="n">
-        <v>73.59104156494141</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="398">
@@ -12970,14 +12970,14 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H402" t="n">
-        <v>72963.64</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I402" t="n">
-        <v>73.59104156494141</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="403">
@@ -13069,14 +13069,14 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>兴业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H405" t="n">
-        <v>52988.8</v>
+        <v>2853.66179</v>
       </c>
       <c r="I405" t="n">
-        <v>79.502685546875</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="406">
@@ -13102,14 +13102,14 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H406" t="n">
-        <v>72963.64</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I406" t="n">
-        <v>73.59104156494141</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="407">
@@ -13135,14 +13135,14 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H407" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I407" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="408">
@@ -13168,14 +13168,14 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>兴业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H408" t="n">
-        <v>52988.8</v>
+        <v>2853.66179</v>
       </c>
       <c r="I408" t="n">
-        <v>79.502685546875</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="409">
@@ -13234,14 +13234,14 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H410" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I410" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="411">
@@ -13300,14 +13300,14 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>兴业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H412" t="n">
-        <v>52988.8</v>
+        <v>2853.66179</v>
       </c>
       <c r="I412" t="n">
-        <v>79.502685546875</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="413">
@@ -13333,14 +13333,14 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>兴业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H413" t="n">
-        <v>52988.8</v>
+        <v>2853.66179</v>
       </c>
       <c r="I413" t="n">
-        <v>79.502685546875</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="414">
@@ -13366,14 +13366,14 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>兴业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H414" t="n">
-        <v>52988.8</v>
+        <v>2853.66179</v>
       </c>
       <c r="I414" t="n">
-        <v>79.502685546875</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="415">
@@ -13451,14 +13451,14 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>兴业银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H417" t="n">
-        <v>52988.8</v>
+        <v>2853.66179</v>
       </c>
       <c r="I417" t="n">
-        <v>79.502685546875</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="418">
@@ -13569,14 +13569,14 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H421" t="n">
-        <v>72963.64</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I421" t="n">
-        <v>73.59104156494141</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="422">
@@ -13800,14 +13800,14 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H428" t="n">
-        <v>72963.64</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I428" t="n">
-        <v>73.59104156494141</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="429">
@@ -13899,14 +13899,14 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H431" t="n">
-        <v>72963.64</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I431" t="n">
-        <v>73.59104156494141</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="432">
@@ -14064,14 +14064,14 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>北京农村商业银行</t>
         </is>
       </c>
       <c r="H436" t="n">
-        <v>7642.3544</v>
+        <v>6282.82677</v>
       </c>
       <c r="I436" t="n">
-        <v>65.89273071289062</v>
+        <v>72.18724060058594</v>
       </c>
     </row>
     <row r="437">
@@ -14196,14 +14196,14 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H440" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I440" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="441">
@@ -14314,14 +14314,14 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H444" t="n">
-        <v>10316.50386</v>
+        <v>5656.67731</v>
       </c>
       <c r="I444" t="n">
-        <v>73.2352294921875</v>
+        <v>67.84734344482422</v>
       </c>
     </row>
     <row r="445">
@@ -14399,14 +14399,14 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H447" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I447" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="448">
@@ -14484,14 +14484,14 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H450" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I450" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="451">
@@ -14635,14 +14635,14 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H455" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I455" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="456">
@@ -14951,14 +14951,14 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H465" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I465" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="466">
@@ -15017,14 +15017,14 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>沪农商行</t>
+          <t>浙商银行</t>
         </is>
       </c>
       <c r="H467" t="n">
-        <v>5870.13544</v>
+        <v>10316.50386</v>
       </c>
       <c r="I467" t="n">
-        <v>74.51352691650391</v>
+        <v>73.2352294921875</v>
       </c>
     </row>
     <row r="468">
@@ -15135,14 +15135,14 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H471" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I471" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="472">
@@ -15583,14 +15583,14 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H485" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I485" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="486">
@@ -15748,14 +15748,14 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H490" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I490" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="491">
@@ -16451,14 +16451,14 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H513" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I513" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="514">
@@ -16536,14 +16536,14 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H516" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I516" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="517">
@@ -16569,14 +16569,14 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H517" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I517" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="518">
@@ -16602,14 +16602,14 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>乌鲁木齐银行</t>
+          <t>兰州银行</t>
         </is>
       </c>
       <c r="H518" t="n">
-        <v>1034.3936042701</v>
+        <v>2055.7392727677</v>
       </c>
       <c r="I518" t="n">
-        <v>63.93939971923828</v>
+        <v>73.99965667724609</v>
       </c>
     </row>
     <row r="519">
@@ -16635,14 +16635,14 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H519" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I519" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="520">
@@ -16668,14 +16668,14 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H520" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I520" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="521">
@@ -16899,14 +16899,14 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H527" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I527" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="528">
@@ -16932,14 +16932,14 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H528" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I528" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="529">
@@ -16965,14 +16965,14 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H529" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I529" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="530">
@@ -16998,14 +16998,14 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>长沙银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H530" t="n">
-        <v>2853.66179</v>
+        <v>5870.13544</v>
       </c>
       <c r="I530" t="n">
-        <v>78.67182159423828</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="531">
@@ -17031,14 +17031,14 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H531" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I531" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="532">
@@ -17130,14 +17130,14 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H534" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I534" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="535">
@@ -17314,14 +17314,14 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H540" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I540" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="541">
@@ -17347,14 +17347,14 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>沪农商行</t>
+          <t>浙商银行</t>
         </is>
       </c>
       <c r="H541" t="n">
-        <v>5870.13544</v>
+        <v>10316.50386</v>
       </c>
       <c r="I541" t="n">
-        <v>74.51352691650391</v>
+        <v>73.2352294921875</v>
       </c>
     </row>
     <row r="542">
@@ -17399,14 +17399,14 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H543" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I543" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="544">
@@ -17451,14 +17451,14 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>安徽庐江农村商业银行</t>
         </is>
       </c>
       <c r="H545" t="n">
-        <v>2343.2872946005</v>
+        <v>116.2761852653</v>
       </c>
       <c r="I545" t="n">
-        <v>70.44279479980469</v>
+        <v>61.01153564453125</v>
       </c>
     </row>
     <row r="546">
@@ -17484,14 +17484,14 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H546" t="n">
-        <v>6361.30621</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I546" t="n">
-        <v>78.24613952636719</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="547">
@@ -17550,14 +17550,14 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>安徽庐江农村商业银行</t>
         </is>
       </c>
       <c r="H548" t="n">
-        <v>2343.2872946005</v>
+        <v>116.2761852653</v>
       </c>
       <c r="I548" t="n">
-        <v>70.44279479980469</v>
+        <v>61.01153564453125</v>
       </c>
     </row>
     <row r="549">
@@ -17616,14 +17616,14 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>重庆银行</t>
+          <t>富滇银行</t>
         </is>
       </c>
       <c r="H550" t="n">
-        <v>3198.07987</v>
+        <v>1540.35433</v>
       </c>
       <c r="I550" t="n">
-        <v>74.11951446533203</v>
+        <v>68.71986389160156</v>
       </c>
     </row>
     <row r="551">
@@ -17649,14 +17649,14 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>重庆银行</t>
+          <t>富滇银行</t>
         </is>
       </c>
       <c r="H551" t="n">
-        <v>3198.07987</v>
+        <v>1540.35433</v>
       </c>
       <c r="I551" t="n">
-        <v>74.11951446533203</v>
+        <v>68.71986389160156</v>
       </c>
     </row>
     <row r="552">
@@ -17961,14 +17961,14 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H561" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I561" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="562">
@@ -18060,14 +18060,14 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H564" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I564" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="565">
@@ -18093,14 +18093,14 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H565" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I565" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="566">
@@ -18362,14 +18362,14 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>河北银行</t>
         </is>
       </c>
       <c r="H574" t="n">
-        <v>7164.64653</v>
+        <v>2226.38595</v>
       </c>
       <c r="I574" t="n">
-        <v>75.46461486816406</v>
+        <v>68.14316558837891</v>
       </c>
     </row>
     <row r="575">
@@ -18645,14 +18645,14 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H583" t="n">
-        <v>50443.52</v>
+        <v>2853.66179</v>
       </c>
       <c r="I583" t="n">
-        <v>78.47769165039062</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="584">
@@ -18711,14 +18711,14 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H585" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I585" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="586">
@@ -18777,14 +18777,14 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H587" t="n">
-        <v>5656.67731</v>
+        <v>5870.13544</v>
       </c>
       <c r="I587" t="n">
-        <v>67.84734344482422</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="588">
@@ -19027,14 +19027,14 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H595" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I595" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="596">
@@ -19060,14 +19060,14 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H596" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I596" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="597">
@@ -19093,14 +19093,14 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>邯郸银行</t>
+          <t>宁夏银行</t>
         </is>
       </c>
       <c r="H597" t="n">
-        <v>1113.3102032464</v>
+        <v>1189.97816</v>
       </c>
       <c r="I597" t="n">
-        <v>64.16789245605469</v>
+        <v>60.16187286376953</v>
       </c>
     </row>
     <row r="598">
@@ -19159,14 +19159,14 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H599" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I599" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="600">
@@ -19192,14 +19192,14 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H600" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I600" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="601">
@@ -19522,14 +19522,14 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>广东顺德农村商业银行</t>
+          <t>重庆农村商业银行</t>
         </is>
       </c>
       <c r="H610" t="n">
-        <v>2260.3613848268</v>
+        <v>7163.65086</v>
       </c>
       <c r="I610" t="n">
-        <v>69.92628479003906</v>
+        <v>68.03396606445312</v>
       </c>
     </row>
     <row r="611">
@@ -19555,14 +19555,14 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H611" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I611" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="612">
@@ -19885,14 +19885,14 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H621" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I621" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="622">
@@ -19951,14 +19951,14 @@
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>佛山农村商业银行</t>
         </is>
       </c>
       <c r="H623" t="n">
-        <v>5828.072</v>
+        <v>647.7011385982</v>
       </c>
       <c r="I623" t="n">
-        <v>73.22734069824219</v>
+        <v>67.84019470214844</v>
       </c>
     </row>
     <row r="624">
@@ -20083,14 +20083,14 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H627" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I627" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="628">
@@ -20135,14 +20135,14 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H629" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I629" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="630">
@@ -20168,14 +20168,14 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>沧州银行</t>
+          <t>江苏姜堰农村商业银行</t>
         </is>
       </c>
       <c r="H630" t="n">
-        <v>835.4968183811</v>
+        <v>261.6715995222</v>
       </c>
       <c r="I630" t="n">
-        <v>60.42550659179688</v>
+        <v>62.68627166748047</v>
       </c>
     </row>
     <row r="631">
@@ -20201,14 +20201,14 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>民生银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H631" t="n">
-        <v>45206.88</v>
+        <v>2853.66179</v>
       </c>
       <c r="I631" t="n">
-        <v>80.07228851318359</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="632">
@@ -20333,14 +20333,14 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>民生银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H635" t="n">
-        <v>45206.88</v>
+        <v>2853.66179</v>
       </c>
       <c r="I635" t="n">
-        <v>80.07228851318359</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="636">
@@ -20432,14 +20432,14 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H638" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I638" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="639">
@@ -20498,14 +20498,14 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H640" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I640" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="641">
@@ -20814,14 +20814,14 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H650" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I650" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="651">
@@ -20847,14 +20847,14 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>沧州银行</t>
+          <t>江苏姜堰农村商业银行</t>
         </is>
       </c>
       <c r="H651" t="n">
-        <v>835.4968183811</v>
+        <v>261.6715995222</v>
       </c>
       <c r="I651" t="n">
-        <v>60.42550659179688</v>
+        <v>62.68627166748047</v>
       </c>
     </row>
     <row r="652">
@@ -20880,14 +20880,14 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>民生银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H652" t="n">
-        <v>45206.88</v>
+        <v>2853.66179</v>
       </c>
       <c r="I652" t="n">
-        <v>80.07228851318359</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="653">
@@ -21012,14 +21012,14 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>民生银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H656" t="n">
-        <v>45206.88</v>
+        <v>2853.66179</v>
       </c>
       <c r="I656" t="n">
-        <v>80.07228851318359</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="657">
@@ -21111,14 +21111,14 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H659" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I659" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="660">
@@ -21177,14 +21177,14 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H661" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I661" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="662">
@@ -21243,14 +21243,14 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>金华银行</t>
+          <t>葫芦岛银行</t>
         </is>
       </c>
       <c r="H663" t="n">
-        <v>552.9086032968</v>
+        <v>464.0057059819</v>
       </c>
       <c r="I663" t="n">
-        <v>63.97265243530273</v>
+        <v>60.79246139526367</v>
       </c>
     </row>
     <row r="664">
@@ -21540,14 +21540,14 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H672" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I672" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="673">
@@ -21639,14 +21639,14 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H675" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I675" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="676">
@@ -21672,14 +21672,14 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H676" t="n">
-        <v>6445.95934</v>
+        <v>8050.20239</v>
       </c>
       <c r="I676" t="n">
-        <v>65.82765197753906</v>
+        <v>72.24199676513672</v>
       </c>
     </row>
     <row r="677">
@@ -21790,14 +21790,14 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>浦发银行</t>
         </is>
       </c>
       <c r="H680" t="n">
-        <v>6445.95934</v>
+        <v>50443.52</v>
       </c>
       <c r="I680" t="n">
-        <v>65.82765197753906</v>
+        <v>78.47769165039062</v>
       </c>
     </row>
     <row r="681">
@@ -21823,14 +21823,14 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H681" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I681" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="682">
@@ -21889,14 +21889,14 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H683" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I683" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="684">
@@ -22073,14 +22073,14 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I689" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="690">
@@ -22271,14 +22271,14 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H695" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I695" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="696">
@@ -22304,14 +22304,14 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H696" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I696" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="697">
@@ -22337,14 +22337,14 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H697" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I697" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="698">
@@ -22403,14 +22403,14 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H699" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I699" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="700">
@@ -22601,14 +22601,14 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H705" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I705" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="706">
@@ -22865,14 +22865,14 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>青农商行</t>
+          <t>浙江泰隆商业银行</t>
         </is>
       </c>
       <c r="H713" t="n">
-        <v>1650.7991</v>
+        <v>1087.1644332407</v>
       </c>
       <c r="I713" t="n">
-        <v>65.663330078125</v>
+        <v>63.4665412902832</v>
       </c>
     </row>
     <row r="714">
@@ -22997,14 +22997,14 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H717" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I717" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="718">
@@ -23049,14 +23049,14 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H719" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I719" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="720">
@@ -23082,14 +23082,14 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H720" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I720" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="721">
@@ -23115,14 +23115,14 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H721" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I721" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="722">
@@ -23148,14 +23148,14 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H722" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I722" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="723">
@@ -23181,14 +23181,14 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H723" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I723" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="724">
@@ -23214,14 +23214,14 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>恒丰银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H724" t="n">
-        <v>10681.5567190739</v>
+        <v>2343.2872946005</v>
       </c>
       <c r="I724" t="n">
-        <v>67.86054229736328</v>
+        <v>70.44279479980469</v>
       </c>
     </row>
     <row r="725">
@@ -23247,14 +23247,14 @@
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H725" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I725" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="726">
@@ -23280,14 +23280,14 @@
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H726" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I726" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="727">
@@ -23313,14 +23313,14 @@
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H727" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I727" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="728">
@@ -23346,14 +23346,14 @@
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H728" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I728" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="729">
@@ -23379,14 +23379,14 @@
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H729" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I729" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="730">
@@ -23412,14 +23412,14 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H730" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I730" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="731">
@@ -23445,14 +23445,14 @@
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H731" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I731" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="732">
@@ -23478,14 +23478,14 @@
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H732" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I732" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="733">
@@ -23511,14 +23511,14 @@
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H733" t="n">
-        <v>12903.33336</v>
+        <v>6361.30621</v>
       </c>
       <c r="I733" t="n">
-        <v>74.08123016357422</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="734">
@@ -23544,14 +23544,14 @@
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H734" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I734" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="735">
@@ -23577,14 +23577,14 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H735" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I735" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="736">
@@ -23610,14 +23610,14 @@
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H736" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I736" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="737">
@@ -23643,14 +23643,14 @@
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H737" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I737" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="738">
@@ -23676,14 +23676,14 @@
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>恒丰银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H738" t="n">
-        <v>10681.5567190739</v>
+        <v>2343.2872946005</v>
       </c>
       <c r="I738" t="n">
-        <v>67.86054229736328</v>
+        <v>70.44279479980469</v>
       </c>
     </row>
     <row r="739">
@@ -23709,14 +23709,14 @@
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H739" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I739" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="740">
@@ -23742,14 +23742,14 @@
       </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H740" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I740" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="741">
@@ -23775,14 +23775,14 @@
       </c>
       <c r="G741" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H741" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I741" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="742">
@@ -23808,14 +23808,14 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H742" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I742" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="743">
@@ -23841,14 +23841,14 @@
       </c>
       <c r="G743" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H743" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I743" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="744">
@@ -23874,14 +23874,14 @@
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H744" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I744" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="745">
@@ -23907,14 +23907,14 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H745" t="n">
-        <v>12903.33336</v>
+        <v>5828.072</v>
       </c>
       <c r="I745" t="n">
-        <v>74.08123016357422</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="746">
@@ -23940,14 +23940,14 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H746" t="n">
-        <v>12903.33336</v>
+        <v>6361.30621</v>
       </c>
       <c r="I746" t="n">
-        <v>74.08123016357422</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="747">
@@ -23973,14 +23973,14 @@
       </c>
       <c r="G747" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H747" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I747" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="748">
@@ -24006,14 +24006,14 @@
       </c>
       <c r="G748" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H748" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I748" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="749">
@@ -24039,14 +24039,14 @@
       </c>
       <c r="G749" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H749" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I749" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="750">
@@ -24110,14 +24110,14 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H752" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I752" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="753">
@@ -24143,14 +24143,14 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H753" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I753" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="754">
@@ -24176,14 +24176,14 @@
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H754" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I754" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="755">
@@ -24247,14 +24247,14 @@
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H757" t="n">
-        <v>4448.51268</v>
+        <v>2343.2872946005</v>
       </c>
       <c r="I757" t="n">
-        <v>72.61605072021484</v>
+        <v>70.44279479980469</v>
       </c>
     </row>
     <row r="758">
@@ -24280,14 +24280,14 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H758" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I758" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="759">
@@ -24313,14 +24313,14 @@
       </c>
       <c r="G759" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H759" t="n">
-        <v>12903.33336</v>
+        <v>5828.072</v>
       </c>
       <c r="I759" t="n">
-        <v>74.08123016357422</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="760">
@@ -24346,14 +24346,14 @@
       </c>
       <c r="G760" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H760" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I760" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="761">
@@ -24379,14 +24379,14 @@
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H761" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I761" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="762">
@@ -24412,14 +24412,14 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H762" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I762" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="763">
@@ -24502,14 +24502,14 @@
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H766" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I766" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="767">
@@ -24535,14 +24535,14 @@
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H767" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I767" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="768">
@@ -24568,14 +24568,14 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>恒丰银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H768" t="n">
-        <v>10681.5567190739</v>
+        <v>2343.2872946005</v>
       </c>
       <c r="I768" t="n">
-        <v>67.86054229736328</v>
+        <v>70.44279479980469</v>
       </c>
     </row>
     <row r="769">
@@ -24601,14 +24601,14 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H769" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I769" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="770">
@@ -24634,14 +24634,14 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H770" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I770" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="771">
@@ -24667,14 +24667,14 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H771" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I771" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="772">
@@ -24700,14 +24700,14 @@
       </c>
       <c r="G772" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H772" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I772" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="773">
@@ -24733,14 +24733,14 @@
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H773" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I773" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="774">
@@ -24766,14 +24766,14 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H774" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I774" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="775">
@@ -24799,14 +24799,14 @@
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H775" t="n">
-        <v>12903.33336</v>
+        <v>5828.072</v>
       </c>
       <c r="I775" t="n">
-        <v>74.08123016357422</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="776">
@@ -24832,14 +24832,14 @@
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H776" t="n">
-        <v>12903.33336</v>
+        <v>6361.30621</v>
       </c>
       <c r="I776" t="n">
-        <v>74.08123016357422</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="777">
@@ -24865,14 +24865,14 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H777" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I777" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="778">
@@ -24898,14 +24898,14 @@
       </c>
       <c r="G778" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H778" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I778" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="779">
@@ -24931,14 +24931,14 @@
       </c>
       <c r="G779" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H779" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I779" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="780">
@@ -25002,14 +25002,14 @@
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H782" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I782" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="783">
@@ -25035,14 +25035,14 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H783" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I783" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="784">
@@ -25068,14 +25068,14 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H784" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I784" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="785">
@@ -25120,14 +25120,14 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H786" t="n">
-        <v>4448.51268</v>
+        <v>2343.2872946005</v>
       </c>
       <c r="I786" t="n">
-        <v>72.61605072021484</v>
+        <v>70.44279479980469</v>
       </c>
     </row>
     <row r="787">
@@ -25153,14 +25153,14 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H787" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I787" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="788">
@@ -25186,14 +25186,14 @@
       </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H788" t="n">
-        <v>12903.33336</v>
+        <v>5828.072</v>
       </c>
       <c r="I788" t="n">
-        <v>74.08123016357422</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="789">
@@ -25219,14 +25219,14 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H789" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I789" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="790">
@@ -25252,14 +25252,14 @@
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H790" t="n">
-        <v>12903.33336</v>
+        <v>2853.66179</v>
       </c>
       <c r="I790" t="n">
-        <v>74.08123016357422</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="791">
@@ -25304,14 +25304,14 @@
       </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>乌鲁木齐银行</t>
+          <t>兰州银行</t>
         </is>
       </c>
       <c r="H792" t="n">
-        <v>1034.3936042701</v>
+        <v>2055.7392727677</v>
       </c>
       <c r="I792" t="n">
-        <v>63.93939971923828</v>
+        <v>73.99965667724609</v>
       </c>
     </row>
     <row r="793">
@@ -25493,14 +25493,14 @@
       </c>
       <c r="G799" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H799" t="n">
-        <v>12903.33336</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I799" t="n">
-        <v>74.08123016357422</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="800">
@@ -25526,14 +25526,14 @@
       </c>
       <c r="G800" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H800" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I800" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="801">
@@ -25644,14 +25644,14 @@
       </c>
       <c r="G804" t="inlineStr">
         <is>
-          <t>恒丰银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H804" t="n">
-        <v>10681.5567190739</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I804" t="n">
-        <v>67.86054229736328</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="805">
@@ -25696,14 +25696,14 @@
       </c>
       <c r="G806" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H806" t="n">
-        <v>12903.33336</v>
+        <v>4448.51268</v>
       </c>
       <c r="I806" t="n">
-        <v>74.08123016357422</v>
+        <v>72.61605072021484</v>
       </c>
     </row>
     <row r="807">
@@ -25729,14 +25729,14 @@
       </c>
       <c r="G807" t="inlineStr">
         <is>
-          <t>沪农商行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H807" t="n">
-        <v>5870.13544</v>
+        <v>4448.51268</v>
       </c>
       <c r="I807" t="n">
-        <v>74.51352691650391</v>
+        <v>72.61605072021484</v>
       </c>
     </row>
     <row r="808">
@@ -25795,14 +25795,14 @@
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H809" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I809" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="810">
@@ -25894,14 +25894,14 @@
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>青农商行</t>
+          <t>浙江泰隆商业银行</t>
         </is>
       </c>
       <c r="H812" t="n">
-        <v>1650.7991</v>
+        <v>1087.1644332407</v>
       </c>
       <c r="I812" t="n">
-        <v>65.663330078125</v>
+        <v>63.4665412902832</v>
       </c>
     </row>
     <row r="813">
@@ -26026,14 +26026,14 @@
       </c>
       <c r="G816" t="inlineStr">
         <is>
-          <t>青农商行</t>
+          <t>浙江泰隆商业银行</t>
         </is>
       </c>
       <c r="H816" t="n">
-        <v>1650.7991</v>
+        <v>1087.1644332407</v>
       </c>
       <c r="I816" t="n">
-        <v>65.663330078125</v>
+        <v>63.4665412902832</v>
       </c>
     </row>
     <row r="817">
@@ -26059,14 +26059,14 @@
       </c>
       <c r="G817" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H817" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I817" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="818">
@@ -26635,14 +26635,14 @@
       </c>
       <c r="G837" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H837" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I837" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="838">
@@ -26965,14 +26965,14 @@
       </c>
       <c r="G847" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H847" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I847" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="848">
@@ -27569,14 +27569,14 @@
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H867" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I867" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="868">
@@ -27602,14 +27602,14 @@
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H868" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I868" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="869">
@@ -27701,14 +27701,14 @@
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>重庆银行</t>
+          <t>富滇银行</t>
         </is>
       </c>
       <c r="H871" t="n">
-        <v>3198.07987</v>
+        <v>1540.35433</v>
       </c>
       <c r="I871" t="n">
-        <v>74.11951446533203</v>
+        <v>68.71986389160156</v>
       </c>
     </row>
     <row r="872">
@@ -27734,14 +27734,14 @@
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>重庆银行</t>
+          <t>富滇银行</t>
         </is>
       </c>
       <c r="H872" t="n">
-        <v>3198.07987</v>
+        <v>1540.35433</v>
       </c>
       <c r="I872" t="n">
-        <v>74.11951446533203</v>
+        <v>68.71986389160156</v>
       </c>
     </row>
     <row r="873">
@@ -27767,14 +27767,14 @@
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H873" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I873" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="874">
@@ -27899,14 +27899,14 @@
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H877" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I877" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="878">
@@ -28050,14 +28050,14 @@
       </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H882" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I882" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="883">
@@ -28248,14 +28248,14 @@
       </c>
       <c r="G888" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H888" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I888" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="889">
@@ -28314,14 +28314,14 @@
       </c>
       <c r="G890" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H890" t="n">
-        <v>50443.52</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I890" t="n">
-        <v>78.47769165039062</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="891">
@@ -28413,14 +28413,14 @@
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H893" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I893" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="894">
@@ -28479,14 +28479,14 @@
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H895" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I895" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="896">
@@ -28512,14 +28512,14 @@
       </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H896" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I896" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="897">
@@ -28545,14 +28545,14 @@
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>北京农村商业银行</t>
         </is>
       </c>
       <c r="H897" t="n">
-        <v>7642.3544</v>
+        <v>6282.82677</v>
       </c>
       <c r="I897" t="n">
-        <v>65.89273071289062</v>
+        <v>72.18724060058594</v>
       </c>
     </row>
     <row r="898">
@@ -28578,14 +28578,14 @@
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>珠海华润银行</t>
+          <t>青海银行</t>
         </is>
       </c>
       <c r="H898" t="n">
-        <v>1163.9383725278</v>
+        <v>704.3542209367999</v>
       </c>
       <c r="I898" t="n">
-        <v>63.7606086730957</v>
+        <v>67.30342102050781</v>
       </c>
     </row>
     <row r="899">
@@ -28630,14 +28630,14 @@
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H900" t="n">
-        <v>2309.01376</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I900" t="n">
-        <v>72.42947387695312</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="901">
@@ -28729,14 +28729,14 @@
       </c>
       <c r="G903" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H903" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I903" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="904">
@@ -28762,14 +28762,14 @@
       </c>
       <c r="G904" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H904" t="n">
-        <v>4448.51268</v>
+        <v>2343.2872946005</v>
       </c>
       <c r="I904" t="n">
-        <v>72.61605072021484</v>
+        <v>70.44279479980469</v>
       </c>
     </row>
     <row r="905">
@@ -28960,14 +28960,14 @@
       </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H910" t="n">
-        <v>6361.30621</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I910" t="n">
-        <v>78.24613952636719</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="911">
@@ -28993,14 +28993,14 @@
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H911" t="n">
-        <v>50443.52</v>
+        <v>2853.66179</v>
       </c>
       <c r="I911" t="n">
-        <v>78.47769165039062</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="912">
@@ -29064,14 +29064,14 @@
       </c>
       <c r="G914" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H914" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I914" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="915">
@@ -29446,14 +29446,14 @@
       </c>
       <c r="G926" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H926" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I926" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="927">
@@ -29597,14 +29597,14 @@
       </c>
       <c r="G931" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H931" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I931" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="932">
@@ -29899,14 +29899,14 @@
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H941" t="n">
-        <v>2343.2872946005</v>
+        <v>4448.51268</v>
       </c>
       <c r="I941" t="n">
-        <v>70.44279479980469</v>
+        <v>72.61605072021484</v>
       </c>
     </row>
     <row r="942">
@@ -29965,14 +29965,14 @@
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H943" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I943" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="944">
@@ -30031,14 +30031,14 @@
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H945" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I945" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="946">
@@ -30526,14 +30526,14 @@
       </c>
       <c r="G960" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H960" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I960" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="961">
@@ -30559,14 +30559,14 @@
       </c>
       <c r="G961" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H961" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I961" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="962">
@@ -30592,14 +30592,14 @@
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H962" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I962" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="963">
@@ -30625,14 +30625,14 @@
       </c>
       <c r="G963" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H963" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I963" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="964">
@@ -30776,14 +30776,14 @@
       </c>
       <c r="G968" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H968" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I968" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="969">
@@ -30842,14 +30842,14 @@
       </c>
       <c r="G970" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H970" t="n">
-        <v>5656.67731</v>
+        <v>5870.13544</v>
       </c>
       <c r="I970" t="n">
-        <v>67.84734344482422</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="971">
@@ -30908,14 +30908,14 @@
       </c>
       <c r="G972" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H972" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I972" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="973">
@@ -30974,14 +30974,14 @@
       </c>
       <c r="G974" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>上海银行</t>
         </is>
       </c>
       <c r="H974" t="n">
-        <v>6282.82677</v>
+        <v>14491.40487</v>
       </c>
       <c r="I974" t="n">
-        <v>72.18724060058594</v>
+        <v>78.57823944091797</v>
       </c>
     </row>
     <row r="975">
@@ -31092,14 +31092,14 @@
       </c>
       <c r="G978" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>上海银行</t>
         </is>
       </c>
       <c r="H978" t="n">
-        <v>6282.82677</v>
+        <v>14491.40487</v>
       </c>
       <c r="I978" t="n">
-        <v>72.18724060058594</v>
+        <v>78.57823944091797</v>
       </c>
     </row>
     <row r="979">
@@ -31163,14 +31163,14 @@
       </c>
       <c r="G981" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H981" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I981" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="982">
@@ -31295,14 +31295,14 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>上海银行</t>
         </is>
       </c>
       <c r="H985" t="n">
-        <v>6282.82677</v>
+        <v>14491.40487</v>
       </c>
       <c r="I985" t="n">
-        <v>72.18724060058594</v>
+        <v>78.57823944091797</v>
       </c>
     </row>
     <row r="986">
@@ -31550,14 +31550,14 @@
       </c>
       <c r="G994" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H994" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I994" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="995">
@@ -31767,14 +31767,14 @@
       </c>
       <c r="G1001" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1001" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1001" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1002">
@@ -31932,14 +31932,14 @@
       </c>
       <c r="G1006" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>邢台银行</t>
         </is>
       </c>
       <c r="H1006" t="n">
-        <v>4448.51268</v>
+        <v>437.6242814508</v>
       </c>
       <c r="I1006" t="n">
-        <v>72.61605072021484</v>
+        <v>65.95743560791016</v>
       </c>
     </row>
     <row r="1007">
@@ -31965,14 +31965,14 @@
       </c>
       <c r="G1007" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1007" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1007" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1008">
@@ -32196,14 +32196,14 @@
       </c>
       <c r="G1014" t="inlineStr">
         <is>
-          <t>昆仑银行</t>
+          <t>上海银行</t>
         </is>
       </c>
       <c r="H1014" t="n">
-        <v>2901.7857472785</v>
+        <v>14491.40487</v>
       </c>
       <c r="I1014" t="n">
-        <v>67.22708129882812</v>
+        <v>78.57823944091797</v>
       </c>
     </row>
     <row r="1015">
@@ -32229,14 +32229,14 @@
       </c>
       <c r="G1015" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H1015" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I1015" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="1016">
@@ -32262,14 +32262,14 @@
       </c>
       <c r="G1016" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1016" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1016" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1017">
@@ -32295,14 +32295,14 @@
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1017" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1017" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1018">
@@ -32795,14 +32795,14 @@
       </c>
       <c r="G1033" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1033" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1033" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1034">
@@ -32894,14 +32894,14 @@
       </c>
       <c r="G1036" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1036" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1036" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1037">
@@ -32927,14 +32927,14 @@
       </c>
       <c r="G1037" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H1037" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I1037" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="1038">
@@ -32960,14 +32960,14 @@
       </c>
       <c r="G1038" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>珠海农村商业银行</t>
         </is>
       </c>
       <c r="H1038" t="n">
-        <v>1433.16797416</v>
+        <v>409.1833316467</v>
       </c>
       <c r="I1038" t="n">
-        <v>62.02214431762695</v>
+        <v>65.16120147705078</v>
       </c>
     </row>
     <row r="1039">
@@ -33026,14 +33026,14 @@
       </c>
       <c r="G1040" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1040" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1040" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1041">
@@ -33163,14 +33163,14 @@
       </c>
       <c r="G1045" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1045" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1045" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1046">
@@ -33262,14 +33262,14 @@
       </c>
       <c r="G1048" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H1048" t="n">
-        <v>5656.67731</v>
+        <v>5870.13544</v>
       </c>
       <c r="I1048" t="n">
-        <v>67.84734344482422</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="1049">
@@ -33611,14 +33611,14 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1059" t="n">
-        <v>12903.33336</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1059" t="n">
-        <v>74.08123016357422</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1060">
@@ -33644,14 +33644,14 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1060" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I1060" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="1061">
@@ -33824,14 +33824,14 @@
       </c>
       <c r="G1068" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1068" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1068" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1069">
@@ -34018,14 +34018,14 @@
       </c>
       <c r="G1076" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1076" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1076" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1077">
@@ -34235,14 +34235,14 @@
       </c>
       <c r="G1083" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1083" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1083" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1084">
@@ -34268,14 +34268,14 @@
       </c>
       <c r="G1084" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1084" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1084" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1085">
@@ -34334,14 +34334,14 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>北京农村商业银行</t>
         </is>
       </c>
       <c r="H1086" t="n">
-        <v>7642.3544</v>
+        <v>6282.82677</v>
       </c>
       <c r="I1086" t="n">
-        <v>65.89273071289062</v>
+        <v>72.18724060058594</v>
       </c>
     </row>
     <row r="1087">
@@ -34532,14 +34532,14 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1092" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1092" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1093">
@@ -34617,14 +34617,14 @@
       </c>
       <c r="G1095" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1095" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1095" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1096">
@@ -35065,14 +35065,14 @@
       </c>
       <c r="G1109" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1109" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1109" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1110">
@@ -35098,14 +35098,14 @@
       </c>
       <c r="G1110" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1110" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1110" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1111">
@@ -35164,14 +35164,14 @@
       </c>
       <c r="G1112" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1112" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1112" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1113">
@@ -35197,14 +35197,14 @@
       </c>
       <c r="G1113" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1113" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1113" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1114">
@@ -35452,14 +35452,14 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1122" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1122" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1123">
@@ -35485,14 +35485,14 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1123" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1123" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1124">
@@ -35702,14 +35702,14 @@
       </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1130" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1130" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1131">
@@ -35768,14 +35768,14 @@
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>安徽桐城农村商业银行</t>
+          <t>保定银行</t>
         </is>
       </c>
       <c r="H1132" t="n">
-        <v>212.2015009261</v>
+        <v>531.6583984407</v>
       </c>
       <c r="I1132" t="n">
-        <v>60.99592971801758</v>
+        <v>60.64225387573242</v>
       </c>
     </row>
     <row r="1133">
@@ -35905,14 +35905,14 @@
       </c>
       <c r="G1137" t="inlineStr">
         <is>
-          <t>长沙银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H1137" t="n">
-        <v>2853.66179</v>
+        <v>5870.13544</v>
       </c>
       <c r="I1137" t="n">
-        <v>78.67182159423828</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="1138">
@@ -35990,14 +35990,14 @@
       </c>
       <c r="G1140" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1140" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1140" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1141">
@@ -36023,14 +36023,14 @@
       </c>
       <c r="G1141" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1141" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1141" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1142">
@@ -36174,14 +36174,14 @@
       </c>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1146" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1146" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1147">
@@ -36273,14 +36273,14 @@
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>安徽桐城农村商业银行</t>
+          <t>保定银行</t>
         </is>
       </c>
       <c r="H1149" t="n">
-        <v>212.2015009261</v>
+        <v>531.6583984407</v>
       </c>
       <c r="I1149" t="n">
-        <v>60.99592971801758</v>
+        <v>60.64225387573242</v>
       </c>
     </row>
     <row r="1150">
@@ -36438,14 +36438,14 @@
       </c>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>长沙银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H1154" t="n">
-        <v>2853.66179</v>
+        <v>5870.13544</v>
       </c>
       <c r="I1154" t="n">
-        <v>78.67182159423828</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="1155">
@@ -36627,14 +36627,14 @@
       </c>
       <c r="G1161" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1161" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1161" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1162">
@@ -36660,14 +36660,14 @@
       </c>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1162" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1162" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1163">
@@ -36896,14 +36896,14 @@
       </c>
       <c r="G1170" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1170" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1170" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1171">
@@ -36995,14 +36995,14 @@
       </c>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1173" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1173" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1174">
@@ -37028,14 +37028,14 @@
       </c>
       <c r="G1174" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1174" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1174" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1175">
@@ -37061,14 +37061,14 @@
       </c>
       <c r="G1175" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H1175" t="n">
-        <v>72963.64</v>
+        <v>5828.072</v>
       </c>
       <c r="I1175" t="n">
-        <v>73.59104156494141</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="1176">
@@ -37127,14 +37127,14 @@
       </c>
       <c r="G1177" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1177" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1177" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1178">
@@ -37259,14 +37259,14 @@
       </c>
       <c r="G1181" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1181" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1181" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1182">
@@ -37325,14 +37325,14 @@
       </c>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>日照银行</t>
+          <t>石嘴山银行</t>
         </is>
       </c>
       <c r="H1183" t="n">
-        <v>919.8809821602999</v>
+        <v>452.1352681451</v>
       </c>
       <c r="I1183" t="n">
-        <v>60.49143600463867</v>
+        <v>61.6007194519043</v>
       </c>
     </row>
     <row r="1184">
@@ -37641,14 +37641,14 @@
       </c>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1193" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1193" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1194">
@@ -37707,14 +37707,14 @@
       </c>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1195" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1195" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1196">
@@ -38056,14 +38056,14 @@
       </c>
       <c r="G1206" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1206" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1206" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1207">
@@ -38688,14 +38688,14 @@
       </c>
       <c r="G1226" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1226" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1226" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1227">
@@ -38886,14 +38886,14 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>北京农村商业银行</t>
         </is>
       </c>
       <c r="H1232" t="n">
-        <v>7642.3544</v>
+        <v>6282.82677</v>
       </c>
       <c r="I1232" t="n">
-        <v>65.89273071289062</v>
+        <v>72.18724060058594</v>
       </c>
     </row>
     <row r="1233">
@@ -39018,14 +39018,14 @@
       </c>
       <c r="G1236" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1236" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1236" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1237">
@@ -39150,14 +39150,14 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1240" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1240" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1241">
@@ -39249,14 +39249,14 @@
       </c>
       <c r="G1243" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1243" t="n">
-        <v>12903.33336</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1243" t="n">
-        <v>74.08123016357422</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1244">
@@ -39315,14 +39315,14 @@
       </c>
       <c r="G1245" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H1245" t="n">
-        <v>5656.67731</v>
+        <v>5870.13544</v>
       </c>
       <c r="I1245" t="n">
-        <v>67.84734344482422</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="1246">
@@ -39777,14 +39777,14 @@
       </c>
       <c r="G1259" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1259" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1259" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1260">
@@ -39876,14 +39876,14 @@
       </c>
       <c r="G1262" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1262" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1262" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1263">
@@ -39909,14 +39909,14 @@
       </c>
       <c r="G1263" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1263" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1263" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1264">
@@ -39942,14 +39942,14 @@
       </c>
       <c r="G1264" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1264" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1264" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1265">
@@ -39975,14 +39975,14 @@
       </c>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1265" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1265" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1266">
@@ -40107,14 +40107,14 @@
       </c>
       <c r="G1269" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1269" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1269" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1270">
@@ -40546,14 +40546,14 @@
       </c>
       <c r="G1284" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1284" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1284" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1285">
@@ -40650,14 +40650,14 @@
       </c>
       <c r="G1288" t="inlineStr">
         <is>
-          <t>民生银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1288" t="n">
-        <v>45206.88</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1288" t="n">
-        <v>80.07228851318359</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1289">
@@ -40716,14 +40716,14 @@
       </c>
       <c r="G1290" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1290" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1290" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1291">
@@ -40999,14 +40999,14 @@
       </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1299" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1299" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1300">
@@ -41032,14 +41032,14 @@
       </c>
       <c r="G1300" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1300" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1300" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1301">
@@ -41296,14 +41296,14 @@
       </c>
       <c r="G1308" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1308" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1308" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1309">
@@ -41395,14 +41395,14 @@
       </c>
       <c r="G1311" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1311" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1311" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1312">
@@ -41461,14 +41461,14 @@
       </c>
       <c r="G1313" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H1313" t="n">
-        <v>2226.38595</v>
+        <v>1920.6161746646</v>
       </c>
       <c r="I1313" t="n">
-        <v>68.14316558837891</v>
+        <v>69.49598693847656</v>
       </c>
     </row>
     <row r="1314">
@@ -41678,14 +41678,14 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>邢台银行</t>
         </is>
       </c>
       <c r="H1320" t="n">
-        <v>4448.51268</v>
+        <v>437.6242814508</v>
       </c>
       <c r="I1320" t="n">
-        <v>72.61605072021484</v>
+        <v>65.95743560791016</v>
       </c>
     </row>
     <row r="1321">
@@ -41843,14 +41843,14 @@
       </c>
       <c r="G1325" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>平安银行</t>
         </is>
       </c>
       <c r="H1325" t="n">
-        <v>6282.82677</v>
+        <v>25071.49</v>
       </c>
       <c r="I1325" t="n">
-        <v>72.18724060058594</v>
+        <v>78.35689544677734</v>
       </c>
     </row>
     <row r="1326">
@@ -42159,14 +42159,14 @@
       </c>
       <c r="G1335" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1335" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1335" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1336">
@@ -42249,14 +42249,14 @@
       </c>
       <c r="G1339" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>安徽桐城农村商业银行</t>
         </is>
       </c>
       <c r="H1339" t="n">
-        <v>1433.16797416</v>
+        <v>212.2015009261</v>
       </c>
       <c r="I1339" t="n">
-        <v>62.02214431762695</v>
+        <v>60.99592971801758</v>
       </c>
     </row>
     <row r="1340">
@@ -42315,14 +42315,14 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>安徽桐城农村商业银行</t>
         </is>
       </c>
       <c r="H1341" t="n">
-        <v>1433.16797416</v>
+        <v>212.2015009261</v>
       </c>
       <c r="I1341" t="n">
-        <v>62.02214431762695</v>
+        <v>60.99592971801758</v>
       </c>
     </row>
     <row r="1342">
@@ -42381,14 +42381,14 @@
       </c>
       <c r="G1343" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>安徽桐城农村商业银行</t>
         </is>
       </c>
       <c r="H1343" t="n">
-        <v>1433.16797416</v>
+        <v>212.2015009261</v>
       </c>
       <c r="I1343" t="n">
-        <v>62.02214431762695</v>
+        <v>60.99592971801758</v>
       </c>
     </row>
     <row r="1344">
@@ -42414,14 +42414,14 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1344" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1344" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1345">
@@ -42579,14 +42579,14 @@
       </c>
       <c r="G1349" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1349" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1349" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1350">
@@ -42749,14 +42749,14 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>安徽桐城农村商业银行</t>
         </is>
       </c>
       <c r="H1355" t="n">
-        <v>1433.16797416</v>
+        <v>212.2015009261</v>
       </c>
       <c r="I1355" t="n">
-        <v>62.02214431762695</v>
+        <v>60.99592971801758</v>
       </c>
     </row>
     <row r="1356">
@@ -42782,14 +42782,14 @@
       </c>
       <c r="G1356" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>安徽桐城农村商业银行</t>
         </is>
       </c>
       <c r="H1356" t="n">
-        <v>1433.16797416</v>
+        <v>212.2015009261</v>
       </c>
       <c r="I1356" t="n">
-        <v>62.02214431762695</v>
+        <v>60.99592971801758</v>
       </c>
     </row>
     <row r="1357">
@@ -42881,14 +42881,14 @@
       </c>
       <c r="G1359" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>安徽桐城农村商业银行</t>
         </is>
       </c>
       <c r="H1359" t="n">
-        <v>1433.16797416</v>
+        <v>212.2015009261</v>
       </c>
       <c r="I1359" t="n">
-        <v>62.02214431762695</v>
+        <v>60.99592971801758</v>
       </c>
     </row>
     <row r="1360">
@@ -42914,14 +42914,14 @@
       </c>
       <c r="G1360" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1360" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1360" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1361">
@@ -43065,14 +43065,14 @@
       </c>
       <c r="G1365" t="inlineStr">
         <is>
-          <t>富滇银行</t>
+          <t>四川天府银行</t>
         </is>
       </c>
       <c r="H1365" t="n">
-        <v>1540.35433</v>
+        <v>0</v>
       </c>
       <c r="I1365" t="n">
-        <v>68.71986389160156</v>
+        <v>64.42512098978095</v>
       </c>
     </row>
     <row r="1366">
@@ -43594,14 +43594,14 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H1384" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I1384" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="1385">
@@ -43627,14 +43627,14 @@
       </c>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1385" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1385" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1386">
@@ -43924,14 +43924,14 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1394" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1394" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1395">
@@ -44023,14 +44023,14 @@
       </c>
       <c r="G1397" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1397" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1397" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1398">
@@ -44155,14 +44155,14 @@
       </c>
       <c r="G1401" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1401" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1401" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1402">
@@ -44410,14 +44410,14 @@
       </c>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1410" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1410" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1411">
@@ -44613,14 +44613,14 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1417" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1417" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1418">
@@ -44679,14 +44679,14 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1419" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1419" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1420">
@@ -44712,14 +44712,14 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1420" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1420" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1421">
@@ -44811,14 +44811,14 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1423" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1423" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1424">
@@ -45108,14 +45108,14 @@
       </c>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H1432" t="n">
-        <v>8050.20239</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I1432" t="n">
-        <v>72.24199676513672</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="1433">
@@ -45141,14 +45141,14 @@
       </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1433" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I1433" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="1434">
@@ -45636,14 +45636,14 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1448" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1448" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1449">
@@ -45669,14 +45669,14 @@
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H1449" t="n">
-        <v>6361.30621</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I1449" t="n">
-        <v>78.24613952636719</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="1450">
@@ -45735,14 +45735,14 @@
       </c>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>江苏长江商业银行</t>
         </is>
       </c>
       <c r="H1451" t="n">
-        <v>6361.30621</v>
+        <v>171.4737536511</v>
       </c>
       <c r="I1451" t="n">
-        <v>78.24613952636719</v>
+        <v>65.84111785888672</v>
       </c>
     </row>
     <row r="1452">
@@ -45971,14 +45971,14 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1459" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1459" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1460">
@@ -46202,14 +46202,14 @@
       </c>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1466" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1466" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1467">
@@ -46235,14 +46235,14 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1467" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1467" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1468">
@@ -46353,14 +46353,14 @@
       </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1471" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1471" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1472">
@@ -46782,14 +46782,14 @@
       </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1484" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1484" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1485">
@@ -47089,14 +47089,14 @@
       </c>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1495" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1495" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1496">
@@ -47240,14 +47240,14 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1500" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1500" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1501">
@@ -47339,14 +47339,14 @@
       </c>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>佛山农村商业银行</t>
         </is>
       </c>
       <c r="H1503" t="n">
-        <v>5828.072</v>
+        <v>647.7011385982</v>
       </c>
       <c r="I1503" t="n">
-        <v>73.22734069824219</v>
+        <v>67.84019470214844</v>
       </c>
     </row>
     <row r="1504">
@@ -47405,14 +47405,14 @@
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>民生银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1505" t="n">
-        <v>45206.88</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1505" t="n">
-        <v>80.07228851318359</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1506">
@@ -47622,14 +47622,14 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1512" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1512" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1513">
@@ -47655,14 +47655,14 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>广东顺德农村商业银行</t>
+          <t>重庆农村商业银行</t>
         </is>
       </c>
       <c r="H1513" t="n">
-        <v>2260.3613848268</v>
+        <v>7163.65086</v>
       </c>
       <c r="I1513" t="n">
-        <v>69.92628479003906</v>
+        <v>68.03396606445312</v>
       </c>
     </row>
     <row r="1514">
@@ -47740,14 +47740,14 @@
       </c>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1516" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1516" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1517">
@@ -47773,14 +47773,14 @@
       </c>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1517" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1517" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1518">
@@ -48103,14 +48103,14 @@
       </c>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1527" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1527" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1528">
@@ -48169,14 +48169,14 @@
       </c>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1529" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1529" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1530">
@@ -48202,14 +48202,14 @@
       </c>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1530" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1530" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1531">
@@ -48334,14 +48334,14 @@
       </c>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>长沙银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H1534" t="n">
-        <v>2853.66179</v>
+        <v>5870.13544</v>
       </c>
       <c r="I1534" t="n">
-        <v>78.67182159423828</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="1535">
@@ -48405,14 +48405,14 @@
       </c>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1537" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1537" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1538">
@@ -48660,14 +48660,14 @@
       </c>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>沪农商行</t>
+          <t>浙商银行</t>
         </is>
       </c>
       <c r="H1546" t="n">
-        <v>5870.13544</v>
+        <v>10316.50386</v>
       </c>
       <c r="I1546" t="n">
-        <v>74.51352691650391</v>
+        <v>73.2352294921875</v>
       </c>
     </row>
     <row r="1547">
@@ -48825,14 +48825,14 @@
       </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1551" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1551" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1552">
@@ -49476,14 +49476,14 @@
       </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>中信银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H1572" t="n">
-        <v>51222.92</v>
+        <v>5656.67731</v>
       </c>
       <c r="I1572" t="n">
-        <v>70.77945709228516</v>
+        <v>67.84734344482422</v>
       </c>
     </row>
     <row r="1573">
@@ -49806,14 +49806,14 @@
       </c>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1582" t="n">
-        <v>1154.906445496</v>
+        <v>66.07771738550001</v>
       </c>
       <c r="I1582" t="n">
-        <v>67.44040679931641</v>
+        <v>63.7360392807355</v>
       </c>
     </row>
     <row r="1583">
@@ -49976,14 +49976,14 @@
       </c>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1588" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1588" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1589">
@@ -50127,14 +50127,14 @@
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1593" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1593" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1594">
@@ -50193,14 +50193,14 @@
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1595" t="n">
-        <v>2343.2872946005</v>
+        <v>4448.51268</v>
       </c>
       <c r="I1595" t="n">
-        <v>70.44279479980469</v>
+        <v>72.61605072021484</v>
       </c>
     </row>
     <row r="1596">
@@ -50226,14 +50226,14 @@
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1596" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1596" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1597">
@@ -50259,14 +50259,14 @@
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1597" t="n">
-        <v>2343.2872946005</v>
+        <v>4448.51268</v>
       </c>
       <c r="I1597" t="n">
-        <v>70.44279479980469</v>
+        <v>72.61605072021484</v>
       </c>
     </row>
     <row r="1598">
@@ -50292,14 +50292,14 @@
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1598" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1598" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1599">
@@ -50325,14 +50325,14 @@
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1599" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1599" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1600">
@@ -50556,14 +50556,14 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1606" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1606" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1607">
@@ -50622,14 +50622,14 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1608" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1608" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1609">
@@ -50655,14 +50655,14 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1609" t="n">
-        <v>50443.52</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1609" t="n">
-        <v>78.47769165039062</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1610">
@@ -50688,14 +50688,14 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>郑州银行</t>
         </is>
       </c>
       <c r="H1610" t="n">
-        <v>5828.072</v>
+        <v>2656.23089</v>
       </c>
       <c r="I1610" t="n">
-        <v>73.22734069824219</v>
+        <v>74.39081573486328</v>
       </c>
     </row>
     <row r="1611">
@@ -50721,14 +50721,14 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H1611" t="n">
-        <v>1547.0414485544</v>
+        <v>926.7252035897</v>
       </c>
       <c r="I1611" t="n">
-        <v>64.49616241455078</v>
+        <v>66.35646057128906</v>
       </c>
     </row>
     <row r="1612">
@@ -51141,14 +51141,14 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1625" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1625" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1626">
@@ -51207,14 +51207,14 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1627" t="n">
-        <v>12903.33336</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1627" t="n">
-        <v>74.08123016357422</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1628">
@@ -51273,14 +51273,14 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1629" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1629" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1630">
@@ -51669,14 +51669,14 @@
       </c>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1641" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1641" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1642">
@@ -51702,14 +51702,14 @@
       </c>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1642" t="n">
-        <v>2309.01376</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1642" t="n">
-        <v>72.42947387695312</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1643">
@@ -51735,14 +51735,14 @@
       </c>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1643" t="n">
-        <v>72963.64</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1643" t="n">
-        <v>73.59104156494141</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1644">
@@ -52197,14 +52197,14 @@
       </c>
       <c r="G1657" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1657" t="n">
-        <v>2309.01376</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1657" t="n">
-        <v>72.42947387695312</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1658">
@@ -52296,14 +52296,14 @@
       </c>
       <c r="G1660" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>广州农村商业银行</t>
         </is>
       </c>
       <c r="H1660" t="n">
-        <v>72963.64</v>
+        <v>5828.072</v>
       </c>
       <c r="I1660" t="n">
-        <v>73.59104156494141</v>
+        <v>73.22734069824219</v>
       </c>
     </row>
     <row r="1661">
@@ -52362,14 +52362,14 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1662" t="n">
-        <v>72963.64</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1662" t="n">
-        <v>73.59104156494141</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1663">
@@ -52824,14 +52824,14 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>邢台银行</t>
         </is>
       </c>
       <c r="H1676" t="n">
-        <v>4448.51268</v>
+        <v>437.6242814508</v>
       </c>
       <c r="I1676" t="n">
-        <v>72.61605072021484</v>
+        <v>65.95743560791016</v>
       </c>
     </row>
     <row r="1677">
@@ -53121,14 +53121,14 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1685" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1685" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1686">
@@ -53409,14 +53409,14 @@
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>昆仑银行</t>
+          <t>上海银行</t>
         </is>
       </c>
       <c r="H1695" t="n">
-        <v>2901.7857472785</v>
+        <v>14491.40487</v>
       </c>
       <c r="I1695" t="n">
-        <v>67.22708129882812</v>
+        <v>78.57823944091797</v>
       </c>
     </row>
     <row r="1696">
@@ -53475,14 +53475,14 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1697" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1697" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1698">
@@ -53508,14 +53508,14 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1698" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1698" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1699">
@@ -53574,14 +53574,14 @@
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1700" t="n">
-        <v>2309.01376</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1700" t="n">
-        <v>72.42947387695312</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1701">
@@ -53607,14 +53607,14 @@
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1701" t="n">
-        <v>2309.01376</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1701" t="n">
-        <v>72.42947387695312</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1702">
@@ -54003,14 +54003,14 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1713" t="n">
-        <v>50443.52</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1713" t="n">
-        <v>78.47769165039062</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1714">
@@ -54135,14 +54135,14 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1717" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1717" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1718">
@@ -54418,14 +54418,14 @@
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1726" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1726" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1727">
@@ -54616,14 +54616,14 @@
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1732" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1732" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1733">
@@ -54649,14 +54649,14 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1733" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1733" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1734">
@@ -54701,14 +54701,14 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1735" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1735" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1736">
@@ -54833,14 +54833,14 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1739" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1739" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1740">
@@ -55079,14 +55079,14 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1747" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1747" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1748">
@@ -55178,14 +55178,14 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1750" t="n">
-        <v>25071.49</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1750" t="n">
-        <v>78.35689544677734</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1751">
@@ -55211,14 +55211,14 @@
       </c>
       <c r="G1751" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1751" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1751" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1752">
@@ -55244,14 +55244,14 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1752" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1752" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1753">
@@ -55395,14 +55395,14 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1757" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1757" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1758">
@@ -55527,14 +55527,14 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1761" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1761" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1762">
@@ -55678,14 +55678,14 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1766" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1766" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1767">
@@ -55777,14 +55777,14 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H1769" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I1769" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="1770">
@@ -55909,14 +55909,14 @@
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1773" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1773" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1774">
@@ -56008,14 +56008,14 @@
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1776" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1776" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1777">
@@ -56074,14 +56074,14 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H1778" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I1778" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="1779">
@@ -56362,14 +56362,14 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1788" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1788" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1789">
@@ -56395,14 +56395,14 @@
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1789" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1789" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1790">
@@ -56546,14 +56546,14 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H1794" t="n">
-        <v>5656.67731</v>
+        <v>5870.13544</v>
       </c>
       <c r="I1794" t="n">
-        <v>67.84734344482422</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="1795">
@@ -56678,14 +56678,14 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>桂林银行</t>
+          <t>江苏昆山农村商业银行</t>
         </is>
       </c>
       <c r="H1798" t="n">
-        <v>1436.36114477</v>
+        <v>634.32227</v>
       </c>
       <c r="I1798" t="n">
-        <v>60.93371963500977</v>
+        <v>62.04651641845703</v>
       </c>
     </row>
     <row r="1799">
@@ -56909,14 +56909,14 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>桂林银行</t>
+          <t>江苏昆山农村商业银行</t>
         </is>
       </c>
       <c r="H1805" t="n">
-        <v>1436.36114477</v>
+        <v>634.32227</v>
       </c>
       <c r="I1805" t="n">
-        <v>60.93371963500977</v>
+        <v>62.04651641845703</v>
       </c>
     </row>
     <row r="1806">
@@ -56942,14 +56942,14 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H1806" t="n">
-        <v>5656.67731</v>
+        <v>5870.13544</v>
       </c>
       <c r="I1806" t="n">
-        <v>67.84734344482422</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="1807">
@@ -57239,14 +57239,14 @@
       </c>
       <c r="G1815" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1815" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1815" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1816">
@@ -57338,14 +57338,14 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1818" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1818" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1819">
@@ -57437,14 +57437,14 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>北京农村商业银行</t>
         </is>
       </c>
       <c r="H1821" t="n">
-        <v>7642.3544</v>
+        <v>6282.82677</v>
       </c>
       <c r="I1821" t="n">
-        <v>65.89273071289062</v>
+        <v>72.18724060058594</v>
       </c>
     </row>
     <row r="1822">
@@ -57602,14 +57602,14 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H1826" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I1826" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="1827">
@@ -57701,14 +57701,14 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H1829" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I1829" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="1830">
@@ -57918,14 +57918,14 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>北京农村商业银行</t>
         </is>
       </c>
       <c r="H1836" t="n">
-        <v>7642.3544</v>
+        <v>6282.82677</v>
       </c>
       <c r="I1836" t="n">
-        <v>65.89273071289062</v>
+        <v>72.18724060058594</v>
       </c>
     </row>
     <row r="1837">
@@ -58267,14 +58267,14 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1847" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1847" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1848">
@@ -58300,14 +58300,14 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H1848" t="n">
-        <v>5656.67731</v>
+        <v>5870.13544</v>
       </c>
       <c r="I1848" t="n">
-        <v>67.84734344482422</v>
+        <v>74.51352691650391</v>
       </c>
     </row>
     <row r="1849">
@@ -58333,14 +58333,14 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>平安银行</t>
         </is>
       </c>
       <c r="H1849" t="n">
-        <v>6282.82677</v>
+        <v>25071.49</v>
       </c>
       <c r="I1849" t="n">
-        <v>72.18724060058594</v>
+        <v>78.35689544677734</v>
       </c>
     </row>
     <row r="1850">
@@ -58366,14 +58366,14 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1850" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1850" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1851">
@@ -58498,14 +58498,14 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H1854" t="n">
-        <v>10316.50386</v>
+        <v>1060.3233851053</v>
       </c>
       <c r="I1854" t="n">
-        <v>73.2352294921875</v>
+        <v>73.86114501953125</v>
       </c>
     </row>
     <row r="1855">
@@ -58531,14 +58531,14 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H1855" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I1855" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="1856">
@@ -58597,14 +58597,14 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1857" t="n">
-        <v>2343.2872946005</v>
+        <v>4448.51268</v>
       </c>
       <c r="I1857" t="n">
-        <v>70.44279479980469</v>
+        <v>72.61605072021484</v>
       </c>
     </row>
     <row r="1858">
@@ -58663,14 +58663,14 @@
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1859" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1859" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1860">
@@ -58828,14 +58828,14 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1864" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1864" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1865">
@@ -58960,14 +58960,14 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1868" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1868" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1869">
@@ -58993,14 +58993,14 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1869" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1869" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1870">
@@ -59092,14 +59092,14 @@
       </c>
       <c r="G1872" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1872" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1872" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1873">
@@ -59125,14 +59125,14 @@
       </c>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1873" t="n">
-        <v>2343.2872946005</v>
+        <v>4448.51268</v>
       </c>
       <c r="I1873" t="n">
-        <v>70.44279479980469</v>
+        <v>72.61605072021484</v>
       </c>
     </row>
     <row r="1874">
@@ -59413,14 +59413,14 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1883" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1883" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1884">
@@ -59611,14 +59611,14 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1889" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1889" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1890">
@@ -59677,14 +59677,14 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>浦发银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1891" t="n">
-        <v>50443.52</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1891" t="n">
-        <v>78.47769165039062</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1892">
@@ -59776,14 +59776,14 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1894" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1894" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1895">
@@ -59974,14 +59974,14 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1900" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1900" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1901">
@@ -60026,14 +60026,14 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1902" t="n">
-        <v>14491.40487</v>
+        <v>2853.66179</v>
       </c>
       <c r="I1902" t="n">
-        <v>78.57823944091797</v>
+        <v>78.67182159423828</v>
       </c>
     </row>
     <row r="1903">
@@ -60177,14 +60177,14 @@
       </c>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1907" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1907" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1908">
@@ -60210,14 +60210,14 @@
       </c>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>青岛银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H1908" t="n">
-        <v>1872.35254</v>
+        <v>2130.8774915626</v>
       </c>
       <c r="I1908" t="n">
-        <v>77.23783111572266</v>
+        <v>69.47288513183594</v>
       </c>
     </row>
     <row r="1909">
@@ -60498,14 +60498,14 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1918" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1918" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1919">
@@ -60729,14 +60729,14 @@
       </c>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1925" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1925" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1926">
@@ -60960,14 +60960,14 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1932" t="n">
-        <v>14491.40487</v>
+        <v>6361.30621</v>
       </c>
       <c r="I1932" t="n">
-        <v>78.57823944091797</v>
+        <v>78.24613952636719</v>
       </c>
     </row>
     <row r="1933">
@@ -61470,14 +61470,14 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1950" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1950" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1951">
@@ -61574,14 +61574,14 @@
       </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1954" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1954" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1955">
@@ -61706,14 +61706,14 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H1958" t="n">
-        <v>12903.33336</v>
+        <v>7164.64653</v>
       </c>
       <c r="I1958" t="n">
-        <v>74.08123016357422</v>
+        <v>75.46461486816406</v>
       </c>
     </row>
     <row r="1959">
@@ -61772,14 +61772,14 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1960" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1960" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1961">
@@ -61890,14 +61890,14 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H1964" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I1964" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="1965">
@@ -62088,14 +62088,14 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1970" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1970" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1971">
@@ -62324,14 +62324,14 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>邮储银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H1978" t="n">
-        <v>72963.64</v>
+        <v>3198.07987</v>
       </c>
       <c r="I1978" t="n">
-        <v>73.59104156494141</v>
+        <v>74.11951446533203</v>
       </c>
     </row>
     <row r="1979">
@@ -62390,14 +62390,14 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="H1980" t="n">
-        <v>7163.65086</v>
+        <v>2100.23599885</v>
       </c>
       <c r="I1980" t="n">
-        <v>68.03396606445312</v>
+        <v>75.07686614990234</v>
       </c>
     </row>
     <row r="1981">
@@ -62423,14 +62423,14 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1981" t="n">
-        <v>10316.50386</v>
+        <v>4592.04689507</v>
       </c>
       <c r="I1981" t="n">
-        <v>73.2352294921875</v>
+        <v>70.51656341552734</v>
       </c>
     </row>
     <row r="1982">
